--- a/2022/Samsung/Others/Allocation Sheet 01.02.2022.xlsx
+++ b/2022/Samsung/Others/Allocation Sheet 01.02.2022.xlsx
@@ -223,6 +223,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -244,7 +245,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +528,7 @@
   <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,22 +545,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="G1" s="10" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -578,15 +578,15 @@
       <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -612,13 +612,13 @@
       <c r="J3" s="7">
         <v>354551892925219</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="10">
         <v>354551894442882</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="10">
         <v>354551894430952</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="10">
         <v>354551894431083</v>
       </c>
     </row>
@@ -644,13 +644,13 @@
         <v>351908990611005</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="17">
+      <c r="K4" s="10">
         <v>351908990611971</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="10">
         <v>351908991012971</v>
       </c>
-      <c r="M4" s="17"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -670,9 +670,9 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -694,11 +694,11 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="17">
+      <c r="K6" s="10">
         <v>356032730251488</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -718,9 +718,9 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -740,9 +740,9 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -762,9 +762,9 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -786,11 +786,11 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="17">
+      <c r="K10" s="10">
         <v>357661640335004</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -812,13 +812,13 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="17">
+      <c r="K11" s="10">
         <v>357484290771919</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="10">
         <v>357484290773378</v>
       </c>
-      <c r="M11" s="17"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -838,15 +838,15 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -869,7 +869,7 @@
   <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H6" sqref="H6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,20 +887,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="9"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -921,12 +921,12 @@
       <c r="F2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1145,10 +1145,10 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
